--- a/biology/Zoologie/Heterostraci/Heterostraci.xlsx
+++ b/biology/Zoologie/Heterostraci/Heterostraci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hétérostracés
 Les Heterostraci soit hétérostracés en français, forment une sous-classe éteinte de vertébrés marins fossiles sans mâchoires, aujourd'hui classés parmi les Ptéraspidomorphes. L'autre grand groupe d'Ostracodermes, les Céphalaspidomorphes, comprenant les ostéostracés, est le plus proche parent des Gnathostomes (vertébrés à mâchoires).
-Les hétérostracés ont vécu du Silurien inférieur au Dévonien supérieur[1].
+Les hétérostracés ont vécu du Silurien inférieur au Dévonien supérieur.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hétérostracés sont protégés par un bouclier facial formé d'un os unique, ne grandissant plus une fois l'animal adulte. Leur corps est aplati et leur bouche est située sur le devant de la tête en position rostrale.
 </t>
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Philippe Janvier, (en) Early Vertebrates,  Oxford University Press 1998,  (ISBN 0-19-854047-7).
